--- a/config/Datas/l10n/TextTable_CN.xlsx
+++ b/config/Datas/l10n/TextTable_CN.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\luban\config\Datas\l10n\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{752B49CF-7438-41A1-9522-EAD460F42BF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D937ECE-0C7D-4B9D-8BCD-10D6994A30F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A92FCC87-3CCB-4551-AAAE-7C509C505A0D}"/>
+    <workbookView xWindow="13125" yWindow="4575" windowWidth="29040" windowHeight="14865" xr2:uid="{A92FCC87-3CCB-4551-AAAE-7C509C505A0D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
   <si>
     <t>##</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -91,6 +91,30 @@
   </si>
   <si>
     <t>text</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>text_tw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>當地語系化值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>當地語系化後的文本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>當地語系化名字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>當地語系化後 test/a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>當地語系化後 test/b</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -455,24 +479,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{350ECAEC-6119-4836-8E37-6CA3CE6798B5}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="23.625" customWidth="1"/>
     <col min="4" max="4" width="18.625" customWidth="1"/>
+    <col min="5" max="5" width="22.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>1</v>
       </c>
@@ -482,8 +507,11 @@
       <c r="D2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>1</v>
       </c>
@@ -493,8 +521,11 @@
       <c r="D3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>1</v>
       </c>
@@ -504,8 +535,11 @@
       <c r="D4" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>5</v>
       </c>
@@ -515,8 +549,11 @@
       <c r="D5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>8</v>
       </c>
@@ -526,8 +563,11 @@
       <c r="D6" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>13</v>
       </c>
@@ -536,6 +576,9 @@
       </c>
       <c r="D7" t="s">
         <v>15</v>
+      </c>
+      <c r="E7" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
